--- a/Ebios-RM.xlsx
+++ b/Ebios-RM.xlsx
@@ -1,59 +1,254 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QuentinSIMAR\Desktop\github\EBIOS-RM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA54274B-BBC6-4915-BAD9-F748E8EA17CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DEFEDD3-B3FF-4277-8373-1143EB9D3D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="500" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Digital risk management pyramid" sheetId="6" r:id="rId1"/>
-    <sheet name="Workshops" sheetId="7" r:id="rId2"/>
-    <sheet name="Objectives " sheetId="8" r:id="rId3"/>
-    <sheet name="Context" sheetId="4" r:id="rId4"/>
-    <sheet name="Scoping and security base" sheetId="3" r:id="rId5"/>
-    <sheet name="RACI" sheetId="9" r:id="rId6"/>
-    <sheet name="Planning" sheetId="10" r:id="rId7"/>
-    <sheet name="Good assets" sheetId="5" r:id="rId8"/>
-    <sheet name="Scale impacts" sheetId="1" r:id="rId9"/>
+    <sheet name="Pyramide management risque" sheetId="6" r:id="rId1"/>
+    <sheet name="Ateliers" sheetId="7" r:id="rId2"/>
+    <sheet name="Objectifs de l'étude" sheetId="8" r:id="rId3"/>
+    <sheet name="Identification de l'objet" sheetId="4" r:id="rId4"/>
+    <sheet name="Mission, valeur métier, bien" sheetId="3" r:id="rId5"/>
+    <sheet name="ER, impact, gravité" sheetId="11" r:id="rId6"/>
+    <sheet name="Echelle de gravité" sheetId="1" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
-  <si>
-    <t>Level of the scale</t>
-  </si>
-  <si>
-    <t>Consequences for the operation</t>
-  </si>
-  <si>
-    <t>G5 – Catastrophic</t>
-  </si>
-  <si>
-    <t>G4 – Critical</t>
-  </si>
-  <si>
-    <t>G3 – Grave</t>
-  </si>
-  <si>
-    <t>G2 – Significant</t>
-  </si>
-  <si>
-    <t>G1 – Minor</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="64">
+  <si>
+    <t>MISSION</t>
+  </si>
+  <si>
+    <t>[..]</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>1 - Cadrage et socle de sécurité</t>
+  </si>
+  <si>
+    <t>Recenser les missions</t>
+  </si>
+  <si>
+    <t>Recenser les valeurs métier</t>
+  </si>
+  <si>
+    <t>Recenser les biens supports relatifs à l'objet étudié</t>
+  </si>
+  <si>
+    <t>Evaluer la gravité des impacts relatifs aux événements redoutés</t>
+  </si>
+  <si>
+    <t>Définir le socle de sécurité</t>
+  </si>
+  <si>
+    <t>Définir les écarts</t>
+  </si>
+  <si>
+    <t>2 - Sources de risque</t>
+  </si>
+  <si>
+    <t>Identifier et caractériser les sources de risque (SR)</t>
+  </si>
+  <si>
+    <t>Identifier les objectifs visés (OV) relatifs aux sources de risque</t>
+  </si>
+  <si>
+    <t>Retenir les couples SR/OV les plus pertinents</t>
+  </si>
+  <si>
+    <t>Créer une cartographie des sources de risque</t>
+  </si>
+  <si>
+    <t>3 - Scénarios stratégiques</t>
+  </si>
+  <si>
+    <t>Acquérir une vision claire de l'écosystème</t>
+  </si>
+  <si>
+    <t>Créer une cartographie de menace numérique relatif à cette écosystème</t>
+  </si>
+  <si>
+    <t>Créer des scénarios stratégiques</t>
+  </si>
+  <si>
+    <t>Evaluer la gravités des scénarios stratégiques</t>
+  </si>
+  <si>
+    <t>Définir des mesures de sécurité sur l'écosystème</t>
+  </si>
+  <si>
+    <t>4 - Scénarios opérationnels</t>
+  </si>
+  <si>
+    <t>Créer des scénarios opérationnels (scénarios techniques + scénarios stratégiques = scénarios opérationnels)</t>
+  </si>
+  <si>
+    <t>Evaluer le niveau de vraisemblance des scénarios opérationnels</t>
+  </si>
+  <si>
+    <t>Créer des scénarios techniques (avec les scénarios stratégiques, et se concentrer sur les biens supports critiques)</t>
+  </si>
+  <si>
+    <t>5 - Traitement  du risque</t>
+  </si>
+  <si>
+    <t>Synthétiser l'ensemble des risques étudiés</t>
+  </si>
+  <si>
+    <t>Définir une stratégie de traitement du risque</t>
+  </si>
+  <si>
+    <t>Définir des mesures de sécurité inscrites dans un plan d'amélioration continue (PDCA)</t>
+  </si>
+  <si>
+    <t>Identifier l'objet de l'étude (étude du contexte)</t>
+  </si>
+  <si>
+    <t>Nom : …</t>
+  </si>
+  <si>
+    <t>Date de création : …</t>
+  </si>
+  <si>
+    <t>Capital : …</t>
+  </si>
+  <si>
+    <t>Etat du marché :  …</t>
+  </si>
+  <si>
+    <t>Missions : …</t>
+  </si>
+  <si>
+    <t>Identifier les événements redoutés (ER) associés aux valeurs métier</t>
+  </si>
+  <si>
+    <t>VALEUR METIER</t>
+  </si>
+  <si>
+    <t>EVENEMENT REDOUTE</t>
+  </si>
+  <si>
+    <t>IMPACTS</t>
+  </si>
+  <si>
+    <t>GRAVITE</t>
+  </si>
+  <si>
+    <t>ECHELLE</t>
+  </si>
+  <si>
+    <t>CONSEQUENCES</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Sectoral or regalian consequences beyond the organisation.
-</t>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Ubuntu Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>G4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Ubuntu Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> CRITIQUE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Ubuntu Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>G3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Ubuntu Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> GRAVE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Ubuntu Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>G2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Ubuntu Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> SIGNIFICATIF</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Ubuntu Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>G1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Ubuntu Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> MINEURE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Ubuntu Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Incapacité pour la société d’assurer tout ou partie de son activité</t>
     </r>
     <r>
       <rPr>
@@ -61,30 +256,16 @@
         <rFont val="Ubuntu Light"/>
         <family val="2"/>
       </rPr>
-      <t>Sectoral ecosystem(s) significantly impacted, with possibly long-lasting consequences.
-And/or: difficulty for the State, or even incapacity, to ensure a regalian function or one of its missions of vital importance.
-And/or: critical impacts on the security of people and goods (health crisis, major environmental pollution, destruction of essential infrastructures, etc.).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Ubuntu"/>
-        <family val="2"/>
-      </rPr>
-      <t>Disastrous consequences for the organisation, with possible impacts on the ecosystem.</t>
+      <t xml:space="preserve">, avec d’éventuels </t>
     </r>
     <r>
       <rPr>
-        <b/>
+        <u/>
         <sz val="10"/>
-        <rFont val="Arial"/>
+        <rFont val="Ubuntu Light"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">
-</t>
+      <t>impacts graves</t>
     </r>
     <r>
       <rPr>
@@ -92,28 +273,18 @@
         <rFont val="Ubuntu Light"/>
         <family val="2"/>
       </rPr>
-      <t>Inability of the organisation to carry out all or part of its business, with possible serious impacts on the safety of people and property. The organisation is unlikely to survive the situation (its survival is threatened), the business or state sectors in which it operates are likely to be slightly impacted, with no lasting consequences.</t>
+      <t xml:space="preserve"> sur la sécurité des personnes et des biens. La société ne surmontera vraisemblablement pas la situation (sa survie est menacée).</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
-        <rFont val="Ubuntu"/>
+        <sz val="10"/>
+        <rFont val="Ubuntu Light"/>
         <family val="2"/>
       </rPr>
-      <t>Significant consequences for the organisation.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Ubuntu"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
+      <t>Forte dégradation des performances de l’activité</t>
     </r>
     <r>
       <rPr>
@@ -121,28 +292,16 @@
         <rFont val="Ubuntu Light"/>
         <family val="2"/>
       </rPr>
-      <t>Severe degradation of business performance, with possible significant impacts on the safety of people and property.  The organisation will overcome the situation with serious difficulties (operation in very degraded mode), without sectoral or state impact.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Ubuntu"/>
-        <family val="2"/>
-      </rPr>
-      <t>Significant but limited consequences for the organisation.</t>
+      <t xml:space="preserve">, avec </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <rFont val="Ubuntu"/>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Ubuntu Light"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">
-</t>
+      <t>d’éventuels impacts significatifs</t>
     </r>
     <r>
       <rPr>
@@ -150,28 +309,28 @@
         <rFont val="Ubuntu Light"/>
         <family val="2"/>
       </rPr>
-      <t>Degradation of the activity's performance without impact on the safety of people and property. The organisation will overcome the situation despite some difficulties (operation in degraded mode).</t>
+      <t xml:space="preserve"> sur la sécurité des personnes et des biens. La société surmontera la situation avec de sérieuses
+difficultés (fonctionnement en mode très dégradé).</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
-        <rFont val="Ubuntu"/>
+        <sz val="10"/>
+        <rFont val="Ubuntu Light"/>
         <family val="2"/>
       </rPr>
-      <t>No operational impact on business performance or on the safety of people and property.</t>
+      <t xml:space="preserve">Dégradation des performances de l’activité </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <rFont val="Ubuntu"/>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Ubuntu Light"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">
-</t>
+      <t>sans impact</t>
     </r>
     <r>
       <rPr>
@@ -179,159 +338,104 @@
         <rFont val="Ubuntu Light"/>
         <family val="2"/>
       </rPr>
-      <t>The organisation will overcome the situation without too much difficulty (consumption of margins).</t>
+      <t xml:space="preserve"> sur la sécurité des personnes et des biens. La société surmontera la situation malgré quelques difficultés (fonctionnement en
+mode dégradé).</t>
     </r>
   </si>
   <si>
-    <t>MISSION</t>
-  </si>
-  <si>
-    <t>Denomination of business value</t>
-  </si>
-  <si>
-    <t>Nature of the business value (process or information)</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Entity or person responsible (internal/external)</t>
-  </si>
-  <si>
-    <t>Name of the associated support property(ies)</t>
-  </si>
-  <si>
-    <t>Context</t>
-  </si>
-  <si>
-    <t>Company created in …</t>
-  </si>
-  <si>
-    <t>Capital …</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State of the market : </t>
-  </si>
-  <si>
-    <t>Mission :</t>
-  </si>
-  <si>
-    <t>- Processus :</t>
-  </si>
-  <si>
-    <t>- Equipment :</t>
-  </si>
-  <si>
-    <t>- Apps :</t>
-  </si>
-  <si>
-    <t>Design, maintain and distribute a data acquisition and supervision system to the monitoring of its customers' contamination control strategy (CCS).</t>
-  </si>
-  <si>
-    <t>- Staff :</t>
-  </si>
-  <si>
-    <t>[..]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                               List
-   Good assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   MAT - Box Wifi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   MAT - Switch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   MAT - UPS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   MAT - Landline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   MAT - Mobile phone</t>
-  </si>
-  <si>
-    <t>IND - Individual equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   MAT - Portable computer</t>
-  </si>
-  <si>
-    <t>PC Lenovo Thinkpad
-PC HP Probook</t>
-  </si>
-  <si>
-    <t>Name : SAFYR SRL</t>
-  </si>
-  <si>
-    <t>INT - Internal Network</t>
-  </si>
-  <si>
-    <t>Objective of the study</t>
-  </si>
-  <si>
-    <t>Main workshops to be conducted or operated</t>
-  </si>
-  <si>
-    <t>Name 1</t>
-  </si>
-  <si>
-    <t>Name 2</t>
-  </si>
-  <si>
-    <t>Name 3</t>
-  </si>
-  <si>
-    <t>Activity 1</t>
-  </si>
-  <si>
-    <t>Activity 2</t>
-  </si>
-  <si>
-    <t>Activity 3</t>
-  </si>
-  <si>
-    <t>Activity 4</t>
-  </si>
-  <si>
-    <t>Name 4</t>
-  </si>
-  <si>
-    <t>Name 5</t>
-  </si>
-  <si>
-    <t>Activity 5</t>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Ubuntu Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Aucun impact</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Ubuntu Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> opérationnel ni sur les performances de l’activité ni sur la sécurité des personnes et des biens. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Ubuntu Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>La société surmontera la situation sans trop de difficultés</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Ubuntu Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (consommation
+des marges).</t>
+    </r>
+  </si>
+  <si>
+    <t>. Impact A
+. Impact B
+. Impact C</t>
+  </si>
+  <si>
+    <t>DENOMINATION DE LA VALEUR METIER</t>
+  </si>
+  <si>
+    <t>NATURE DE LA VALEUR METIER [PROCESSUS/INFORMATION]</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>ENTITE OU PERSONNE RESPONSABLE (INTERNE/EXTERNE)</t>
+  </si>
+  <si>
+    <t>DENOMINATION DU/DES BIENS SUPPORTS ASSOCIES</t>
+  </si>
+  <si>
+    <t>Personnel :</t>
+  </si>
+  <si>
+    <t>Processus :</t>
+  </si>
+  <si>
+    <t>Equipement :</t>
+  </si>
+  <si>
+    <t>Applications :</t>
+  </si>
+  <si>
+    <t>Mesures de sécurité</t>
+  </si>
+  <si>
+    <t>ATELIERS</t>
+  </si>
+  <si>
+    <t>OBJETIFS</t>
+  </si>
+  <si>
+    <t>CONTEXTE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <name val="Ubuntu"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Ubuntu"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Ubuntu"/>
       <family val="2"/>
       <charset val="1"/>
@@ -344,50 +448,8 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Ubuntu Light"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Ubuntu"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="0"/>
-      <name val="Ubuntu"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="0"/>
-      <name val="Ubuntu Medium"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color theme="0"/>
-      <name val="Ubuntu Medium"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -401,49 +463,57 @@
       <color theme="0"/>
       <name val="Ubuntu "/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Ubuntu"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Ubuntu"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Ubuntu Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Ubuntu Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <name val="Ubuntu Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Ubuntu Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE71C1B"/>
-        <bgColor rgb="FF993300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFD428"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFE994"/>
-        <bgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF74DDE9"/>
-        <bgColor rgb="FF33CCCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.249977111117893"/>
-        <bgColor rgb="FFCCFFCC"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -459,118 +529,77 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF2A0054"/>
+        <fgColor rgb="FFFFCCFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF2A0054"/>
-        <bgColor rgb="FFCCFFCC"/>
+        <fgColor rgb="FFFF5050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6D6D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFB061"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFDE53"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00C0BC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FF33CCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF001B50"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB483D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9D05D"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -583,9 +612,7 @@
       <top style="slantDashDot">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -598,66 +625,93 @@
       <top style="slantDashDot">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="0"/>
+      </left>
+      <right style="hair">
+        <color theme="0"/>
+      </right>
+      <top style="hair">
+        <color theme="0"/>
+      </top>
+      <bottom style="hair">
+        <color theme="0"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
+      <left/>
+      <right style="hair">
+        <color theme="0"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
+      <top style="hair">
+        <color theme="0"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalDown="1">
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal style="thin">
-        <color auto="1"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
+      <bottom style="hair">
+        <color theme="0"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <left style="hair">
+        <color theme="0"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
+      <right style="hair">
+        <color theme="0"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
+      <top style="hair">
+        <color theme="0"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="0"/>
+      </left>
+      <right style="hair">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color theme="0"/>
+      </left>
+      <right style="hair">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color theme="0"/>
       </bottom>
       <diagonal/>
     </border>
@@ -665,74 +719,134 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -807,13 +921,16 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
     <mruColors>
-      <color rgb="FFFF33CC"/>
-      <color rgb="FF2A0054"/>
-      <color rgb="FF972FFF"/>
-      <color rgb="FFE0C1FF"/>
-      <color rgb="FFFFBDBD"/>
-      <color rgb="FFAC75D5"/>
-      <color rgb="FFFF9F9F"/>
+      <color rgb="FFFF5050"/>
+      <color rgb="FFF9D05D"/>
+      <color rgb="FF00C0BC"/>
+      <color rgb="FF00D6D1"/>
+      <color rgb="FFB483D9"/>
+      <color rgb="FFAA72D4"/>
+      <color rgb="FF001B50"/>
+      <color rgb="FF001132"/>
+      <color rgb="FFFF6D6D"/>
+      <color rgb="FFFFB061"/>
     </mruColors>
   </colors>
   <extLst>
@@ -886,8 +1003,8 @@
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>642760</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>557035</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>149063</xdr:rowOff>
     </xdr:to>
@@ -1225,7 +1342,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -1237,14 +1354,47 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E57A49-8761-47D3-B3B1-884E0AA39240}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:B10"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="47" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1252,185 +1402,308 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B208BB64-555B-43F8-9DA6-D79D99133AD6}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="29.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="66.7109375" customWidth="1"/>
+    <col min="3" max="3" width="64.140625" customWidth="1"/>
+    <col min="4" max="4" width="68" customWidth="1"/>
+    <col min="5" max="5" width="71.28515625" customWidth="1"/>
+    <col min="6" max="6" width="51.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19.5">
-      <c r="B1" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
+      <c r="A1" s="2"/>
+      <c r="B1" s="60" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
     </row>
     <row r="2" spans="1:6" ht="19.5">
-      <c r="A2" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="22">
-        <v>1</v>
-      </c>
-      <c r="C2" s="22">
-        <v>2</v>
-      </c>
-      <c r="D2" s="22">
+      <c r="A2" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="22">
+      <c r="C2" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="56" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="28.5">
+      <c r="B3" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="57" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="33" customHeight="1">
+      <c r="B4" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="22">
+      <c r="C4" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="57" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="28.5">
+      <c r="B5" s="38" t="s">
         <v>5</v>
       </c>
+      <c r="C5" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="57" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="14.25">
+      <c r="B6" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="53"/>
+      <c r="F6" s="58"/>
+    </row>
+    <row r="7" spans="1:6" ht="14.25">
+      <c r="B7" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="42"/>
+      <c r="D7" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="53"/>
+      <c r="F7" s="58"/>
+    </row>
+    <row r="8" spans="1:6" ht="14.25">
+      <c r="B8" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="42"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="58"/>
+    </row>
+    <row r="9" spans="1:6" ht="14.25">
+      <c r="B9" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="42"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="58"/>
+    </row>
+    <row r="10" spans="1:6" ht="14.25">
+      <c r="B10" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="43"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBDA11B9-2899-4617-ADB7-E1BD402FD0A3}">
+  <sheetPr>
+    <tabColor rgb="FFFFCCFF"/>
+  </sheetPr>
   <dimension ref="B1:C29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" customWidth="1"/>
+    <col min="2" max="2" width="47" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="18">
-      <c r="B1" s="29" t="s">
-        <v>18</v>
-      </c>
+      <c r="B1" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3">
+      <c r="B2" s="2"/>
     </row>
     <row r="3" spans="2:3" ht="16.5">
-      <c r="B3" s="23" t="s">
-        <v>38</v>
+      <c r="B3" s="28" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="16.5">
-      <c r="B4" s="23" t="s">
-        <v>19</v>
+      <c r="B4" s="28" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="16.5">
-      <c r="B5" s="23" t="s">
-        <v>20</v>
+      <c r="B5" s="28" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="16.5">
-      <c r="B6" s="23" t="s">
-        <v>21</v>
+      <c r="B6" s="28" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="16.5">
-      <c r="B7" s="23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="17.25" thickBot="1">
-      <c r="B8" s="23"/>
-    </row>
-    <row r="9" spans="2:3" ht="17.25" thickBot="1">
-      <c r="B9" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" ht="17.25" thickBot="1">
-      <c r="B10" s="25"/>
-    </row>
-    <row r="11" spans="2:3" ht="17.25" thickBot="1">
-      <c r="B11" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" ht="17.25" thickBot="1">
-      <c r="B12" s="25"/>
-    </row>
-    <row r="13" spans="2:3" ht="17.25" thickBot="1">
-      <c r="B13" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" ht="17.25" thickBot="1">
-      <c r="B14" s="25"/>
-    </row>
-    <row r="15" spans="2:3" ht="17.25" thickBot="1">
-      <c r="B15" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>28</v>
+      <c r="B7" s="28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="16.5">
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="2:3" ht="16.5">
+      <c r="B9" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="16.5">
+      <c r="B10" s="29"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="2:3" ht="16.5">
+      <c r="B11" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="16.5">
+      <c r="B12" s="30"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="2:3" ht="16.5">
+      <c r="B13" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="16.5">
+      <c r="B14" s="30"/>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="2:3" ht="16.5">
+      <c r="B15" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="2:3">
-      <c r="B16" s="9"/>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="9"/>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="9"/>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="9"/>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="9"/>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="9"/>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="9"/>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="9"/>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="9"/>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="9"/>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="9"/>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" s="9"/>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="9"/>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="9"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="2:3" ht="16.5">
+      <c r="B17" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="31"/>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="B29" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1441,107 +1714,99 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B17E4CFE-F28E-43CD-B734-6D5BC85C8C1F}">
   <sheetPr>
-    <tabColor rgb="FFFF33CC"/>
+    <tabColor rgb="FFFFCCFF"/>
   </sheetPr>
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="46.42578125" customWidth="1"/>
+    <col min="1" max="1" width="84.5703125" customWidth="1"/>
     <col min="2" max="2" width="150" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="36">
-      <c r="A1" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="13.5" thickBot="1">
-      <c r="A5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="7"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="7"/>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="7"/>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="7"/>
+    <row r="1" spans="1:2" ht="18">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="19.5">
+      <c r="A2" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="19.5">
+      <c r="A3" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="19.5">
+      <c r="A4" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="19.5">
+      <c r="A5" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75">
+      <c r="A6" s="24"/>
+      <c r="B6" s="23"/>
+    </row>
+    <row r="7" spans="1:2" ht="19.5">
+      <c r="A7" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="19.5">
+      <c r="A8" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="19.5">
+      <c r="A9" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="7"/>
+      <c r="A13" s="2"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="7"/>
+      <c r="A14" s="2"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="7"/>
+      <c r="A15" s="2"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="7"/>
+      <c r="A16" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1549,195 +1814,116 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18E748E6-805B-4C7C-8C47-6B7F09EBEBBD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85614448-9BE2-4EE8-BEA1-F18EABB3EF4A}">
   <sheetPr>
-    <tabColor rgb="FFFF33CC"/>
+    <tabColor rgb="FFFFCCFF"/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="28.42578125" customWidth="1"/>
+    <col min="8" max="8" width="81.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19.5">
-      <c r="A1" s="34"/>
-      <c r="B1" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="33" t="s">
+      <c r="A1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" ht="39.75" customHeight="1">
+      <c r="A2" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="19.5">
-      <c r="A2" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-    </row>
-    <row r="3" spans="1:6" ht="19.5">
-      <c r="A3" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-    </row>
-    <row r="4" spans="1:6" ht="19.5">
-      <c r="A4" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-    </row>
-    <row r="5" spans="1:6" ht="19.5">
-      <c r="A5" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-    </row>
-    <row r="6" spans="1:6" ht="19.5">
-      <c r="A6" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
+      <c r="D2" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="39.75" customHeight="1">
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="39.75" customHeight="1">
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="39.75" customHeight="1">
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="39.75" customHeight="1">
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="39.75" customHeight="1">
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="39.75" customHeight="1">
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="11">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7C6BBA0-44E7-48C5-96D2-82B2695A19B1}">
-  <sheetPr>
-    <tabColor rgb="FFFF33CC"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{660EA65A-FD72-48E8-81A6-E917F0CAA089}">
-  <dimension ref="A1:D10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="44.5703125" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="105" customHeight="1" thickBot="1">
-      <c r="A1" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="13.5" thickBot="1">
-      <c r="A10" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <cols>
@@ -1745,57 +1931,52 @@
     <col min="2" max="2" width="98.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21.75" thickBot="1">
-      <c r="A1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="133.5" thickTop="1" thickBot="1">
-      <c r="A2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="67.5" thickTop="1" thickBot="1">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="67.5" thickTop="1" thickBot="1">
-      <c r="A4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="51" thickTop="1" thickBot="1">
-      <c r="A5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="34.5" thickTop="1" thickBot="1">
-      <c r="A6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="13.5" thickTop="1"/>
+    <row r="1" spans="1:2" ht="19.5">
+      <c r="A1" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="49.5">
+      <c r="A2" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="49.5">
+      <c r="A3" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="49.5">
+      <c r="A4" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="49.5">
+      <c r="A5" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.5">
+      <c r="A6" s="7"/>
+      <c r="B6" s="6"/>
+    </row>
     <row r="8" spans="1:2">
-      <c r="B8" s="2"/>
+      <c r="B8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -1808,29 +1989,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Person xmlns="697422ec-95af-4bd2-8276-a0ec7e90a4ab">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Person>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DFBB0D2FDE44F94CB78A9106E3FBA332" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="137b1f1cb11a1256ab4a0f5880de417a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="697422ec-95af-4bd2-8276-a0ec7e90a4ab" xmlns:ns3="cdf9ac4b-5435-4bec-af38-1f507fb7cef4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="daa17bb5a01238db6bf64e5679998ab6" ns2:_="" ns3:_="">
     <xsd:import namespace="697422ec-95af-4bd2-8276-a0ec7e90a4ab"/>
@@ -2067,25 +2225,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06E10371-9AC9-4013-9760-8C8E58478A78}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="697422ec-95af-4bd2-8276-a0ec7e90a4ab"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F09DFB5-5621-4569-A1B8-D17B8BA8581F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Person xmlns="697422ec-95af-4bd2-8276-a0ec7e90a4ab">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Person>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22357339-C823-4122-A1BF-672EA02855DF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2102,4 +2265,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F09DFB5-5621-4569-A1B8-D17B8BA8581F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06E10371-9AC9-4013-9760-8C8E58478A78}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="697422ec-95af-4bd2-8276-a0ec7e90a4ab"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Ebios-RM.xlsx
+++ b/Ebios-RM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QuentinSIMAR\Desktop\github\EBIOS-RM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DEFEDD3-B3FF-4277-8373-1143EB9D3D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25BE6FFA-A097-430B-A7F9-5FD020FD84CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="500" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pyramide management risque" sheetId="6" r:id="rId1"/>
@@ -529,12 +529,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF5050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -590,6 +584,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF9D05D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFB3FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -729,11 +729,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -744,46 +741,52 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -793,59 +796,56 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -921,16 +921,16 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
     <mruColors>
+      <color rgb="FFFFB3FF"/>
+      <color rgb="FFFF97FF"/>
+      <color rgb="FFFFC1FF"/>
+      <color rgb="FFFFAFFF"/>
       <color rgb="FFFF5050"/>
       <color rgb="FFF9D05D"/>
       <color rgb="FF00C0BC"/>
       <color rgb="FF00D6D1"/>
       <color rgb="FFB483D9"/>
       <color rgb="FFAA72D4"/>
-      <color rgb="FF001B50"/>
-      <color rgb="FF001132"/>
-      <color rgb="FFFF6D6D"/>
-      <color rgb="FFFFB061"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1404,8 +1404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B208BB64-555B-43F8-9DA6-D79D99133AD6}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -1420,135 +1420,135 @@
   <sheetData>
     <row r="1" spans="1:6" ht="19.5">
       <c r="A1" s="2"/>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
     </row>
     <row r="2" spans="1:6" ht="19.5">
       <c r="A2" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="F2" s="52" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="28.5">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="52" t="s">
+      <c r="E3" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="57" t="s">
+      <c r="F3" s="53" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="33" customHeight="1">
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="47" t="s">
+      <c r="D4" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="52" t="s">
+      <c r="E4" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="57" t="s">
+      <c r="F4" s="53" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="28.5">
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="52" t="s">
+      <c r="E5" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="57" t="s">
+      <c r="F5" s="53" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.25">
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="53"/>
-      <c r="F6" s="58"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="54"/>
     </row>
     <row r="7" spans="1:6" ht="14.25">
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="47" t="s">
+      <c r="C7" s="39"/>
+      <c r="D7" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="53"/>
-      <c r="F7" s="58"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="54"/>
     </row>
     <row r="8" spans="1:6" ht="14.25">
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="58"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="54"/>
     </row>
     <row r="9" spans="1:6" ht="14.25">
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="58"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="54"/>
     </row>
     <row r="10" spans="1:6" ht="14.25">
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="59"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1562,7 +1562,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBDA11B9-2899-4617-ADB7-E1BD402FD0A3}">
   <sheetPr>
-    <tabColor rgb="FFFFCCFF"/>
+    <tabColor rgb="FFFFB3FF"/>
   </sheetPr>
   <dimension ref="B1:C29"/>
   <sheetViews>
@@ -1714,7 +1714,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B17E4CFE-F28E-43CD-B734-6D5BC85C8C1F}">
   <sheetPr>
-    <tabColor rgb="FFFFCCFF"/>
+    <tabColor rgb="FFFFB3FF"/>
   </sheetPr>
   <dimension ref="A1:B16"/>
   <sheetViews>
@@ -1816,7 +1816,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85614448-9BE2-4EE8-BEA1-F18EABB3EF4A}">
   <sheetPr>
-    <tabColor rgb="FFFFCCFF"/>
+    <tabColor rgb="FFFFB3FF"/>
   </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
@@ -1919,10 +1919,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFFFB3FF"/>
+  </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -1989,6 +1992,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DFBB0D2FDE44F94CB78A9106E3FBA332" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="137b1f1cb11a1256ab4a0f5880de417a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="697422ec-95af-4bd2-8276-a0ec7e90a4ab" xmlns:ns3="cdf9ac4b-5435-4bec-af38-1f507fb7cef4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="daa17bb5a01238db6bf64e5679998ab6" ns2:_="" ns3:_="">
     <xsd:import namespace="697422ec-95af-4bd2-8276-a0ec7e90a4ab"/>
@@ -2225,15 +2237,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2249,6 +2252,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F09DFB5-5621-4569-A1B8-D17B8BA8581F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22357339-C823-4122-A1BF-672EA02855DF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2267,14 +2278,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F09DFB5-5621-4569-A1B8-D17B8BA8581F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06E10371-9AC9-4013-9760-8C8E58478A78}">
   <ds:schemaRefs>

--- a/Ebios-RM.xlsx
+++ b/Ebios-RM.xlsx
@@ -5,21 +5,24 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QuentinSIMAR\Desktop\github\EBIOS-RM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hexgroup-my.sharepoint.com/personal/quentin_simar_hex-group_eu/Documents/Bureau/github/EBIOS-RM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25BE6FFA-A097-430B-A7F9-5FD020FD84CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="172" documentId="13_ncr:1_{34FA30CE-0FC9-4941-9723-95B5746A2D60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF5B8001-7465-450C-AAA2-C7A2C1CAE194}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="500" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pyramide management risque" sheetId="6" r:id="rId1"/>
     <sheet name="Ateliers" sheetId="7" r:id="rId2"/>
-    <sheet name="Objectifs de l'étude" sheetId="8" r:id="rId3"/>
+    <sheet name="Objectifs de l'étude" sheetId="13" r:id="rId3"/>
     <sheet name="Identification de l'objet" sheetId="4" r:id="rId4"/>
     <sheet name="Mission, valeur métier, bien" sheetId="3" r:id="rId5"/>
     <sheet name="ER, impact, gravité" sheetId="11" r:id="rId6"/>
     <sheet name="Echelle de gravité" sheetId="1" r:id="rId7"/>
+    <sheet name="Socle de sécurité" sheetId="12" r:id="rId8"/>
+    <sheet name="SR_OV" sheetId="14" r:id="rId9"/>
+    <sheet name="SR_OV retenus" sheetId="15" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="80">
   <si>
     <t>MISSION</t>
   </si>
@@ -422,6 +425,54 @@
   </si>
   <si>
     <t>CONTEXTE</t>
+  </si>
+  <si>
+    <t>TYPE DE REFERENTIEL</t>
+  </si>
+  <si>
+    <t>NOM DU REFERENTIEL</t>
+  </si>
+  <si>
+    <t>ETAT D'APPLICATION</t>
+  </si>
+  <si>
+    <t>ECARTS</t>
+  </si>
+  <si>
+    <t>JUSTIFICATION DES ECARTS</t>
+  </si>
+  <si>
+    <t>[…]</t>
+  </si>
+  <si>
+    <t>CADRE DE L'ETUDE</t>
+  </si>
+  <si>
+    <t>SOURCES DE RISQUE</t>
+  </si>
+  <si>
+    <t>OBJECTIFS VISES</t>
+  </si>
+  <si>
+    <t>MOTIVATION</t>
+  </si>
+  <si>
+    <t>RESSOURCES</t>
+  </si>
+  <si>
+    <t>ACTIVITE</t>
+  </si>
+  <si>
+    <t>PERTINENCE</t>
+  </si>
+  <si>
+    <t>Moyenne</t>
+  </si>
+  <si>
+    <t>Elevée</t>
+  </si>
+  <si>
+    <t>Faible</t>
   </si>
 </sst>
 </file>
@@ -508,7 +559,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -593,8 +644,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -715,11 +772,123 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -796,42 +965,18 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -839,14 +984,88 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -921,16 +1140,16 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
     <mruColors>
+      <color rgb="FF00C0BC"/>
+      <color rgb="FFFF5050"/>
+      <color rgb="FFF9D05D"/>
+      <color rgb="FFB483D9"/>
+      <color rgb="FFAA72D4"/>
       <color rgb="FFFFB3FF"/>
       <color rgb="FFFF97FF"/>
       <color rgb="FFFFC1FF"/>
       <color rgb="FFFFAFFF"/>
-      <color rgb="FFFF5050"/>
-      <color rgb="FFF9D05D"/>
-      <color rgb="FF00C0BC"/>
       <color rgb="FF00D6D1"/>
-      <color rgb="FFB483D9"/>
-      <color rgb="FFAA72D4"/>
     </mruColors>
   </colors>
   <extLst>
@@ -997,16 +1216,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>438150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>557035</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>149063</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2966860</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>53813</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1029,7 +1248,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="85725" y="28575"/>
+          <a:off x="4667250" y="4800600"/>
           <a:ext cx="8939035" cy="5464013"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1352,210 +1571,303 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E57A49-8761-47D3-B3B1-884E0AA39240}">
-  <dimension ref="B2:B10"/>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8912F18-1628-4829-BA0F-C664A33B733D}">
+  <sheetPr>
+    <tabColor rgb="FFB483D9"/>
+  </sheetPr>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="47" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" customWidth="1"/>
+    <col min="3" max="3" width="29.5703125" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" customWidth="1"/>
+    <col min="5" max="5" width="28.7109375" customWidth="1"/>
+    <col min="6" max="6" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2">
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="2:2">
-      <c r="B3" s="2" t="s">
+    <row r="1" spans="1:7" ht="19.5">
+      <c r="A1" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="42" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="70" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="71" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="73" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="74"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="F5" s="72"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E57A49-8761-47D3-B3B1-884E0AA39240}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="47" customWidth="1"/>
+    <col min="3" max="3" width="50.28515625" customWidth="1"/>
+    <col min="4" max="4" width="41.28515625" customWidth="1"/>
+    <col min="5" max="5" width="46.7109375" customWidth="1"/>
+    <col min="6" max="6" width="39.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="19.5">
+      <c r="A1" s="2"/>
+      <c r="B1" s="68" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+    </row>
+    <row r="2" spans="1:6" ht="19.5">
+      <c r="A2" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="42.75">
+      <c r="B3" s="44" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="2:2">
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="2:2">
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9" s="2"/>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" s="2"/>
-    </row>
+      <c r="C3" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="48" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="42.75">
+      <c r="B4" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="48" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="42.75">
+      <c r="B5" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="48" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="28.5">
+      <c r="B6" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="49"/>
+      <c r="F6" s="50"/>
+    </row>
+    <row r="7" spans="1:6" ht="28.5">
+      <c r="B7" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="51"/>
+      <c r="D7" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="49"/>
+      <c r="F7" s="50"/>
+    </row>
+    <row r="8" spans="1:6" ht="28.5">
+      <c r="B8" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="51"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="50"/>
+    </row>
+    <row r="9" spans="1:6" ht="42.75" customHeight="1">
+      <c r="B9" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="51"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="50"/>
+    </row>
+    <row r="10" spans="1:6" ht="48" customHeight="1">
+      <c r="B10" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="56"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="59"/>
+    </row>
+    <row r="11" spans="1:6" ht="52.5" customHeight="1"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:F1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B208BB64-555B-43F8-9DA6-D79D99133AD6}">
-  <dimension ref="A1:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAC55D54-C3E6-45AE-B4E7-EA3BA0C1A99E}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" customWidth="1"/>
-    <col min="2" max="2" width="66.7109375" customWidth="1"/>
-    <col min="3" max="3" width="64.140625" customWidth="1"/>
-    <col min="4" max="4" width="68" customWidth="1"/>
-    <col min="5" max="5" width="71.28515625" customWidth="1"/>
-    <col min="6" max="6" width="51.42578125" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" customWidth="1"/>
+    <col min="2" max="2" width="34.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.5">
-      <c r="A1" s="2"/>
-      <c r="B1" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-    </row>
-    <row r="2" spans="1:6" ht="19.5">
-      <c r="A2" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="57" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="52" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="28.5">
-      <c r="B3" s="58" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="53" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="33" customHeight="1">
-      <c r="B4" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="53" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="28.5">
-      <c r="B5" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="53" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="14.25">
-      <c r="B6" s="58" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="49"/>
-      <c r="F6" s="54"/>
-    </row>
-    <row r="7" spans="1:6" ht="14.25">
-      <c r="B7" s="59" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="49"/>
-      <c r="F7" s="54"/>
-    </row>
-    <row r="8" spans="1:6" ht="14.25">
-      <c r="B8" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="54"/>
-    </row>
-    <row r="9" spans="1:6" ht="14.25">
-      <c r="B9" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="54"/>
-    </row>
-    <row r="10" spans="1:6" ht="14.25">
-      <c r="B10" s="60" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="55"/>
+    <row r="1" spans="1:2">
+      <c r="B1" s="60"/>
+    </row>
+    <row r="2" spans="1:2" ht="19.5">
+      <c r="A2" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="61" t="s">
+        <v>69</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:F1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1719,7 +2031,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -1821,7 +2133,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -1852,10 +2164,10 @@
     </row>
     <row r="2" spans="1:6" ht="39.75" customHeight="1">
       <c r="A2" s="18" t="s">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>50</v>
@@ -1866,7 +2178,7 @@
     </row>
     <row r="3" spans="1:6" ht="39.75" customHeight="1">
       <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="20"/>
       <c r="D3" s="8">
         <v>1</v>
@@ -1925,13 +2237,13 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="28.140625" customWidth="1"/>
-    <col min="2" max="2" width="98.28515625" customWidth="1"/>
+    <col min="2" max="2" width="99.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="19.5">
@@ -1991,7 +2303,141 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{664BE8FD-FD77-4991-8817-3A56793101DF}">
+  <sheetPr>
+    <tabColor rgb="FFFFB3FF"/>
+  </sheetPr>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="31.42578125" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" customWidth="1"/>
+    <col min="3" max="4" width="29.7109375" customWidth="1"/>
+    <col min="5" max="5" width="52" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="19.5">
+      <c r="A1" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="63" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="64" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="67"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="64" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="64" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43EBC962-3850-43DC-A766-5BF72B128B45}">
+  <sheetPr>
+    <tabColor rgb="FFB483D9"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="33.42578125" customWidth="1"/>
+    <col min="2" max="2" width="41.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="19.5">
+      <c r="A1" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="69" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="69" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Person xmlns="697422ec-95af-4bd2-8276-a0ec7e90a4ab">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Person>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2000,7 +2446,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DFBB0D2FDE44F94CB78A9106E3FBA332" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="137b1f1cb11a1256ab4a0f5880de417a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="697422ec-95af-4bd2-8276-a0ec7e90a4ab" xmlns:ns3="cdf9ac4b-5435-4bec-af38-1f507fb7cef4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="daa17bb5a01238db6bf64e5679998ab6" ns2:_="" ns3:_="">
     <xsd:import namespace="697422ec-95af-4bd2-8276-a0ec7e90a4ab"/>
@@ -2237,21 +2683,17 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Person xmlns="697422ec-95af-4bd2-8276-a0ec7e90a4ab">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Person>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06E10371-9AC9-4013-9760-8C8E58478A78}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="697422ec-95af-4bd2-8276-a0ec7e90a4ab"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F09DFB5-5621-4569-A1B8-D17B8BA8581F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -2259,7 +2701,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22357339-C823-4122-A1BF-672EA02855DF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2276,14 +2718,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06E10371-9AC9-4013-9760-8C8E58478A78}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="697422ec-95af-4bd2-8276-a0ec7e90a4ab"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Ebios-RM.xlsx
+++ b/Ebios-RM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hexgroup-my.sharepoint.com/personal/quentin_simar_hex-group_eu/Documents/Bureau/github/EBIOS-RM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="172" documentId="13_ncr:1_{34FA30CE-0FC9-4941-9723-95B5746A2D60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF5B8001-7465-450C-AAA2-C7A2C1CAE194}"/>
+  <xr:revisionPtr revIDLastSave="537" documentId="13_ncr:1_{34FA30CE-0FC9-4941-9723-95B5746A2D60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4EDFD90A-76FD-4A97-85DD-25803C18CCDC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="500" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="500" firstSheet="11" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pyramide management risque" sheetId="6" r:id="rId1"/>
@@ -23,6 +23,13 @@
     <sheet name="Socle de sécurité" sheetId="12" r:id="rId8"/>
     <sheet name="SR_OV" sheetId="14" r:id="rId9"/>
     <sheet name="SR_OV retenus" sheetId="15" r:id="rId10"/>
+    <sheet name="Partie prenante" sheetId="16" r:id="rId11"/>
+    <sheet name="Cartographie menace numérique" sheetId="17" r:id="rId12"/>
+    <sheet name="Scénarios stratégiques" sheetId="18" r:id="rId13"/>
+    <sheet name="Synthèse scénarios stratégiques" sheetId="19" r:id="rId14"/>
+    <sheet name="Scénarios opérationnels" sheetId="20" r:id="rId15"/>
+    <sheet name="Vraisemblance op" sheetId="21" r:id="rId16"/>
+    <sheet name="Echelle vraisemblance op" sheetId="22" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="112">
   <si>
     <t>MISSION</t>
   </si>
@@ -474,12 +481,134 @@
   <si>
     <t>Faible</t>
   </si>
+  <si>
+    <t>CATEGORIE</t>
+  </si>
+  <si>
+    <t>PARTIE PRENANTE</t>
+  </si>
+  <si>
+    <t>Clients</t>
+  </si>
+  <si>
+    <t>C2 - Pharmacie</t>
+  </si>
+  <si>
+    <t>C3 - Clinique privée</t>
+  </si>
+  <si>
+    <t>C1 - Centre hospitalier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOTE </t>
+  </si>
+  <si>
+    <t>SOURCES DE RISQUES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHEMINS D'ATTAQUE STRATEGIQUES </t>
+  </si>
+  <si>
+    <t>Concurrent</t>
+  </si>
+  <si>
+    <t>Trois chemins d’attaque à investiguer.
+Un concurrent vole des travaux
+de recherche en créant un canal
+d’exfiltration de données :
+1. Portant directement sur le système d'information de la R&amp;D;
+2. Sur le système d’information du laboratoire (P3), qui détient une partie des travaux ;
+3. Passant par le prestataire informatique F3;</t>
+  </si>
+  <si>
+    <t>3 Grave</t>
+  </si>
+  <si>
+    <t>4 Critique</t>
+  </si>
+  <si>
+    <t>Hacktiviste</t>
+  </si>
+  <si>
+    <t>Voler des informations en espionnant les travaux de R&amp;D en vue d’obtenir un avantage concurrentiel</t>
+  </si>
+  <si>
+    <t>Saboter la prochaine campagne nationale de vaccination pour générer un choc psychologique sur la population et discréditer les pouvoirs publics</t>
+  </si>
+  <si>
+    <t>Deux chemins d’attaque à investiguer. Un hacktiviste perturbe la
+production ou la distribution de vaccins :
+1. en provoquant un arrêt de la production industrielle par compromission de l’équipement
+de maintenance du fournisseur de matériel F2 ;
+2. en modifiant l’étiquetage des vaccins.</t>
+  </si>
+  <si>
+    <t>V4 Quasi certain</t>
+  </si>
+  <si>
+    <t>V3 Très vraisemblable</t>
+  </si>
+  <si>
+    <t>V2 Vraisemblable</t>
+  </si>
+  <si>
+    <t>V1 Peu vraisemblable</t>
+  </si>
+  <si>
+    <t>La source de risque va certainement atteindre son objectif visé
+selon l’un des modes opératoires envisagés.
+La vraisemblance du scénario est très élevée.</t>
+  </si>
+  <si>
+    <t>La source de risque va probablement atteindre son objectif visé
+selon l’un des modes opératoires envisagés.
+La vraisemblance du scénario est élevée.</t>
+  </si>
+  <si>
+    <t>La source de risque est susceptible d’atteindre son objectif visé
+selon l’un des modes opératoires envisagés.
+La vraisemblance du scénario est significative.</t>
+  </si>
+  <si>
+    <t>La source de risque a peu de chance d’atteindre son objectif visé
+selon l’un des modes opératoires envisagés.
+La vraisemblance du scénario est faible.</t>
+  </si>
+  <si>
+    <t>CHEMINS D'ATTAQUE STRATEGIQUES</t>
+  </si>
+  <si>
+    <t>VRAISSEMBLANCE GLOBALE</t>
+  </si>
+  <si>
+    <t>Un concurrent vole des travaux de recherche en créant un canal
+d’exfiltration de données portant directement sur le système
+d’information de la R&amp;D.</t>
+  </si>
+  <si>
+    <t>Un concurrent vole des travaux de recherche en créant un canal
+d’exfiltration de données sur le système d’information du laboratoire,
+qui détient une partie des travaux.</t>
+  </si>
+  <si>
+    <t>V2 Un concurrent vole des travaux de recherche en créant un canal
+d’exfiltration de données passant par le prestataire informatique.</t>
+  </si>
+  <si>
+    <t>Un hacktiviste perturbe la production de vaccins en provoquant
+un arrêt de la production industrielle par compromission de
+l’équipement de maintenance du fournisseur de matériel.</t>
+  </si>
+  <si>
+    <t>Un hacktiviste perturbe la distribution de vaccins en modifiant
+leur étiquetage</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -558,8 +687,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Ubuntu Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Ubuntu Light"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -650,8 +791,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEDB109"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -876,19 +1053,50 @@
         <color theme="0"/>
       </left>
       <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
       <top style="thin">
-        <color theme="0"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color theme="0"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -971,9 +1179,6 @@
     <xf numFmtId="0" fontId="13" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -992,15 +1197,9 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1010,9 +1209,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1023,9 +1219,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1044,28 +1237,113 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1140,16 +1418,16 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
     <mruColors>
+      <color rgb="FFEDB109"/>
+      <color rgb="FFF9D05D"/>
+      <color rgb="FFFF5050"/>
       <color rgb="FF00C0BC"/>
-      <color rgb="FFFF5050"/>
-      <color rgb="FFF9D05D"/>
+      <color rgb="FFFBF579"/>
       <color rgb="FFB483D9"/>
       <color rgb="FFAA72D4"/>
       <color rgb="FFFFB3FF"/>
       <color rgb="FFFF97FF"/>
       <color rgb="FFFFC1FF"/>
-      <color rgb="FFFFAFFF"/>
-      <color rgb="FF00D6D1"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1217,15 +1495,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>438150</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2966860</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>53813</xdr:rowOff>
+      <xdr:colOff>2985910</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>63338</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1248,8 +1526,199 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4667250" y="4800600"/>
+          <a:off x="4686300" y="5295900"/>
           <a:ext cx="8939035" cy="5464013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>627529</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>627529</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>7733</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D95261F-50C9-49BA-AEE1-3DAA4E63913E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="627529" y="235323"/>
+          <a:ext cx="7620000" cy="7616528"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>27215</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>232248</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F399186A-99F4-4257-8744-4A0C62B4AF7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="680358"/>
+          <a:ext cx="13186248" cy="6667500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>136072</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>108856</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>166353</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>66196</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7FB2F37-D7B3-44BC-8E99-29BC7A386A49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13852072" y="761999"/>
+          <a:ext cx="12222281" cy="6325483"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>156322</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>138546</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>80632</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19ED2231-9D00-4226-9260-604E9425CEE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="918322" y="336176"/>
+          <a:ext cx="9126224" cy="7431691"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1578,8 +2047,8 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -1593,88 +2062,431 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19.5">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="67" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="67" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="67" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="65" t="s">
+      <c r="D2" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="65" t="s">
+      <c r="E2" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="70" t="s">
+      <c r="F2" s="62" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="65" t="s">
+      <c r="D3" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="65" t="s">
+      <c r="E3" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="71" t="s">
+      <c r="F3" s="63" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="65" t="s">
+      <c r="D4" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="65" t="s">
+      <c r="E4" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="F4" s="73" t="s">
+      <c r="F4" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="G4" s="74"/>
+      <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="F5" s="72"/>
+      <c r="F5" s="64"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6518065-9EA9-4840-9E69-7D5AA6109689}">
+  <sheetPr>
+    <tabColor rgb="FF00C0BC"/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="47.85546875" customWidth="1"/>
+    <col min="2" max="2" width="45.140625" customWidth="1"/>
+    <col min="3" max="3" width="36.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="19.5">
+      <c r="A1" s="74" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="75" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="70" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="65"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="76" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="77" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="65"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="78"/>
+      <c r="B3" s="77" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="65"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="78"/>
+      <c r="B4" s="79" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="65"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="64"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A8D408-827F-4799-B4DC-8DD92866F29D}">
+  <sheetPr>
+    <tabColor rgb="FF00C0BC"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P30" sqref="P30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB91AF23-71B2-4A73-BF02-F00BC76BAB48}">
+  <sheetPr>
+    <tabColor rgb="FF00C0BC"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X48" sqref="X48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75F25EBB-2D4F-48E3-B33E-71B060A98C1E}">
+  <sheetPr>
+    <tabColor rgb="FF00C0BC"/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="32.42578125" customWidth="1"/>
+    <col min="2" max="2" width="50.140625" customWidth="1"/>
+    <col min="3" max="3" width="80.140625" customWidth="1"/>
+    <col min="4" max="4" width="28.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="19.5">
+      <c r="A1" s="74" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="70" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="70" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="115.5">
+      <c r="A2" s="83" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="82" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="80" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="91" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="82.5">
+      <c r="A3" s="83" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="82" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="81" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="92" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="39.75" customHeight="1">
+      <c r="A4" s="83" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="83" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="83" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="83" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80D340FA-0B8A-45F5-B193-2FADB38C7B4E}">
+  <sheetPr>
+    <tabColor rgb="FFEDB109"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q49" sqref="Q49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="4" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3201A9C4-128A-4759-8CAC-DF99B0CAFF27}">
+  <sheetPr>
+    <tabColor rgb="FFEDB109"/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="71" customWidth="1"/>
+    <col min="2" max="2" width="72.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="19.5">
+      <c r="A1" s="74" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="75" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="75.75" customHeight="1">
+      <c r="A2" s="98" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="95" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="65.25" customHeight="1">
+      <c r="A3" s="98" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="94" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="69" customHeight="1">
+      <c r="A4" s="98" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="96" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="72.75" customHeight="1">
+      <c r="A5" s="98" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" s="94" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="61.5" customHeight="1">
+      <c r="A6" s="97" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" s="93" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D969813-EC02-488D-AA6D-574B8A4A77A1}">
+  <sheetPr>
+    <tabColor rgb="FFEDB109"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="42.140625" customWidth="1"/>
+    <col min="2" max="2" width="72.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="19.5">
+      <c r="A1" s="74" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="75" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="75.75" customHeight="1">
+      <c r="A2" s="93" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="89" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="65.25" customHeight="1">
+      <c r="A3" s="94" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="97" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="103.5" customHeight="1">
+      <c r="A4" s="95" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="89" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="89.25" customHeight="1">
+      <c r="A5" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="90" t="s">
+        <v>104</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1686,7 +2498,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -1701,19 +2513,19 @@
   <sheetData>
     <row r="1" spans="1:6" ht="19.5">
       <c r="A1" s="2"/>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
     </row>
     <row r="2" spans="1:6" ht="19.5">
       <c r="A2" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="42" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="38" t="s">
@@ -1722,114 +2534,114 @@
       <c r="D2" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="F2" s="40" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="42.75">
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="48" t="s">
+      <c r="F3" s="46" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="42.75">
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="47" t="s">
+      <c r="E4" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="48" t="s">
+      <c r="F4" s="46" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="42.75">
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="D5" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="48" t="s">
+      <c r="F5" s="46" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="28.5">
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="46" t="s">
+      <c r="D6" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="49"/>
-      <c r="F6" s="50"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="47"/>
     </row>
     <row r="7" spans="1:6" ht="28.5">
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="46" t="s">
+      <c r="C7" s="48"/>
+      <c r="D7" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="49"/>
-      <c r="F7" s="50"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="47"/>
     </row>
     <row r="8" spans="1:6" ht="28.5">
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="50"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="47"/>
     </row>
     <row r="9" spans="1:6" ht="42.75" customHeight="1">
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="50"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="47"/>
     </row>
     <row r="10" spans="1:6" ht="48" customHeight="1">
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="59"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="54"/>
     </row>
     <row r="11" spans="1:6" ht="52.5" customHeight="1"/>
   </sheetData>
@@ -1856,13 +2668,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="B1" s="60"/>
+      <c r="B1" s="55"/>
     </row>
     <row r="2" spans="1:2" ht="19.5">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="56" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2311,7 +3123,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:B3"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -2323,47 +3135,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19.5">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="63" t="s">
+      <c r="E1" s="58" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="64" t="s">
+      <c r="E2" s="59" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="67"/>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="64" t="s">
+      <c r="A3" s="73"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="64" t="s">
+      <c r="E3" s="59" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2385,7 +3197,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -2395,26 +3207,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="19.5">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="67" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="67" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="61" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="59" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2424,29 +3236,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Person xmlns="697422ec-95af-4bd2-8276-a0ec7e90a4ab">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Person>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DFBB0D2FDE44F94CB78A9106E3FBA332" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="137b1f1cb11a1256ab4a0f5880de417a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="697422ec-95af-4bd2-8276-a0ec7e90a4ab" xmlns:ns3="cdf9ac4b-5435-4bec-af38-1f507fb7cef4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="daa17bb5a01238db6bf64e5679998ab6" ns2:_="" ns3:_="">
     <xsd:import namespace="697422ec-95af-4bd2-8276-a0ec7e90a4ab"/>
@@ -2683,25 +3472,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06E10371-9AC9-4013-9760-8C8E58478A78}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="697422ec-95af-4bd2-8276-a0ec7e90a4ab"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F09DFB5-5621-4569-A1B8-D17B8BA8581F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Person xmlns="697422ec-95af-4bd2-8276-a0ec7e90a4ab">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Person>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22357339-C823-4122-A1BF-672EA02855DF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2718,4 +3512,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F09DFB5-5621-4569-A1B8-D17B8BA8581F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06E10371-9AC9-4013-9760-8C8E58478A78}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="697422ec-95af-4bd2-8276-a0ec7e90a4ab"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Ebios-RM.xlsx
+++ b/Ebios-RM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hexgroup-my.sharepoint.com/personal/quentin_simar_hex-group_eu/Documents/Bureau/github/EBIOS-RM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="537" documentId="13_ncr:1_{34FA30CE-0FC9-4941-9723-95B5746A2D60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4EDFD90A-76FD-4A97-85DD-25803C18CCDC}"/>
+  <xr:revisionPtr revIDLastSave="752" documentId="13_ncr:1_{34FA30CE-0FC9-4941-9723-95B5746A2D60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0DEFD4FB-767E-43B0-BDE2-89D213F02CA2}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="500" firstSheet="11" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="17" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pyramide management risque" sheetId="6" r:id="rId1"/>
@@ -30,6 +30,10 @@
     <sheet name="Scénarios opérationnels" sheetId="20" r:id="rId15"/>
     <sheet name="Vraisemblance op" sheetId="21" r:id="rId16"/>
     <sheet name="Echelle vraisemblance op" sheetId="22" r:id="rId17"/>
+    <sheet name="Synthèse scénarios de risque" sheetId="23" r:id="rId18"/>
+    <sheet name="Stratégie traitement + mesure" sheetId="24" r:id="rId19"/>
+    <sheet name="Mesures de sécurité" sheetId="25" r:id="rId20"/>
+    <sheet name="RR" sheetId="26" r:id="rId21"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="144">
   <si>
     <t>MISSION</t>
   </si>
@@ -602,6 +606,103 @@
   <si>
     <t>Un hacktiviste perturbe la distribution de vaccins en modifiant
 leur étiquetage</t>
+  </si>
+  <si>
+    <t>NIVEAU DE RISQUE</t>
+  </si>
+  <si>
+    <t>ACCEPTABILITE DU RISQUE</t>
+  </si>
+  <si>
+    <t>INTITULE DES DECISIONS ET DES ACTIONS</t>
+  </si>
+  <si>
+    <t>Moyen</t>
+  </si>
+  <si>
+    <t>Elevé</t>
+  </si>
+  <si>
+    <t>Acceptable en l'état</t>
+  </si>
+  <si>
+    <t>Tolérable sous contrôle</t>
+  </si>
+  <si>
+    <t>Inacceptable</t>
+  </si>
+  <si>
+    <t>Aucune action n'est à entreprendre.</t>
+  </si>
+  <si>
+    <t>Un suivi en termes de gestion du risque est à mener et des actions sont à mettre en place dans le cadre d’une amélioration continue sur le moyen et long terme.</t>
+  </si>
+  <si>
+    <t>Des mesures de réduction du risque doivent impérativement être prises à court terme.
+Dans le cas contraire, tout ou partie de l’activité sera refusé.</t>
+  </si>
+  <si>
+    <t>MESURE DE SECURITE</t>
+  </si>
+  <si>
+    <t>SCENARIOS DE RISQUES ASSOCIES</t>
+  </si>
+  <si>
+    <t>RESPONSABLE</t>
+  </si>
+  <si>
+    <t>FREINS ET DIFFICULTES DE MISE EN ŒUVRE</t>
+  </si>
+  <si>
+    <t>COUT / COMPLEXITE</t>
+  </si>
+  <si>
+    <t>ECHEANCE</t>
+  </si>
+  <si>
+    <t>STATUT</t>
+  </si>
+  <si>
+    <t>Catégorie 1</t>
+  </si>
+  <si>
+    <t>Catégorie 2</t>
+  </si>
+  <si>
+    <t>RR01 - LIBELLE DU RISQUE RESIDUEL : [..]</t>
+  </si>
+  <si>
+    <t>Description et analyse du risque résiduel :</t>
+  </si>
+  <si>
+    <t>Evenements redoutés concernés :</t>
+  </si>
+  <si>
+    <t>Mesures de traitement du risque existantes et complémentaires :</t>
+  </si>
+  <si>
+    <t>Evaluation du risque résiduel :</t>
+  </si>
+  <si>
+    <t>Gravité initiale :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gravité résiduelle : </t>
+  </si>
+  <si>
+    <t>Vraisemblance initiale :</t>
+  </si>
+  <si>
+    <t>Vraisemblance résiduelle :</t>
+  </si>
+  <si>
+    <t>Niveau de risque initial :</t>
+  </si>
+  <si>
+    <t>Niveau de risque résiduel :</t>
+  </si>
+  <si>
+    <t>Gestion du risque résiduel :</t>
   </si>
 </sst>
 </file>
@@ -739,12 +840,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFDE53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00C0BC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -770,12 +865,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB483D9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF9D05D"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -827,8 +916,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9F149"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8BA3E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -1092,11 +1193,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1106,11 +1242,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1121,46 +1254,46 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1170,20 +1303,113 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1191,158 +1417,132 @@
     <xf numFmtId="0" fontId="6" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1418,16 +1618,16 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
     <mruColors>
+      <color rgb="FFFF5050"/>
+      <color rgb="FFF9F149"/>
+      <color rgb="FFF8BA3E"/>
       <color rgb="FFEDB109"/>
+      <color rgb="FFFBF579"/>
+      <color rgb="FF00C0BC"/>
       <color rgb="FFF9D05D"/>
-      <color rgb="FFFF5050"/>
-      <color rgb="FF00C0BC"/>
-      <color rgb="FFFBF579"/>
       <color rgb="FFB483D9"/>
       <color rgb="FFAA72D4"/>
       <color rgb="FFFFB3FF"/>
-      <color rgb="FFFF97FF"/>
-      <color rgb="FFFFC1FF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1719,6 +1919,104 @@
         <a:xfrm>
           <a:off x="918322" y="336176"/>
           <a:ext cx="9126224" cy="7431691"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>477672</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>192939</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>121062</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5678D93-59B0-4BBA-B767-7EE8154361E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="477672" y="341195"/>
+          <a:ext cx="6084222" cy="7627330"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>418171</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>83635</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1984961</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>35569</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{059583E1-E751-4BAC-AAE9-C7FE2A0D0FA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="418171" y="1635513"/>
+          <a:ext cx="6306058" cy="7813544"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2033,7 +2331,7 @@
       <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2048,102 +2346,102 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" customWidth="1"/>
-    <col min="3" max="3" width="29.5703125" customWidth="1"/>
-    <col min="4" max="4" width="32.140625" customWidth="1"/>
-    <col min="5" max="5" width="28.7109375" customWidth="1"/>
-    <col min="6" max="6" width="29.7109375" customWidth="1"/>
+    <col min="1" max="1" width="29.33203125" customWidth="1"/>
+    <col min="2" max="2" width="31.109375" customWidth="1"/>
+    <col min="3" max="3" width="29.5546875" customWidth="1"/>
+    <col min="4" max="4" width="32.109375" customWidth="1"/>
+    <col min="5" max="5" width="28.6640625" customWidth="1"/>
+    <col min="6" max="6" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.5">
-      <c r="A1" s="67" t="s">
+    <row r="1" spans="1:7" ht="18.600000000000001">
+      <c r="A1" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="64" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="D1" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="67" t="s">
+      <c r="E1" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="67" t="s">
+      <c r="F1" s="64" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="60" t="s">
+      <c r="D2" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="60" t="s">
+      <c r="E2" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="62" t="s">
+      <c r="F2" s="95" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="60" t="s">
+      <c r="D3" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="60" t="s">
+      <c r="E3" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="63" t="s">
+      <c r="F3" s="60" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="68" t="s">
+      <c r="D4" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="68" t="s">
+      <c r="E4" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="F4" s="69" t="s">
+      <c r="F4" s="66" t="s">
         <v>79</v>
       </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="F5" s="64"/>
+      <c r="F5" s="61"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2161,59 +2459,59 @@
       <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="47.85546875" customWidth="1"/>
-    <col min="2" max="2" width="45.140625" customWidth="1"/>
-    <col min="3" max="3" width="36.42578125" customWidth="1"/>
+    <col min="1" max="1" width="47.88671875" customWidth="1"/>
+    <col min="2" max="2" width="45.109375" customWidth="1"/>
+    <col min="3" max="3" width="36.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.5">
-      <c r="A1" s="74" t="s">
+    <row r="1" spans="1:4" ht="18.600000000000001">
+      <c r="A1" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="70" t="s">
+      <c r="C1" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="65"/>
+      <c r="D1" s="62"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="93" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="65"/>
+      <c r="D2" s="62"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="78"/>
-      <c r="B3" s="77" t="s">
+      <c r="A3" s="94"/>
+      <c r="B3" s="70" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="65"/>
+      <c r="D3" s="62"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="78"/>
-      <c r="B4" s="79" t="s">
+      <c r="A4" s="94"/>
+      <c r="B4" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="65"/>
+      <c r="D4" s="62"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="64"/>
+      <c r="A5" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2230,11 +2528,11 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2252,7 +2550,7 @@
       <selection activeCell="X48" sqref="X48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2267,70 +2565,70 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" customWidth="1"/>
-    <col min="2" max="2" width="50.140625" customWidth="1"/>
-    <col min="3" max="3" width="80.140625" customWidth="1"/>
-    <col min="4" max="4" width="28.42578125" customWidth="1"/>
+    <col min="1" max="1" width="32.44140625" customWidth="1"/>
+    <col min="2" max="2" width="50.109375" customWidth="1"/>
+    <col min="3" max="3" width="80.109375" customWidth="1"/>
+    <col min="4" max="4" width="28.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.5">
-      <c r="A1" s="74" t="s">
+    <row r="1" spans="1:4" ht="18.600000000000001">
+      <c r="A1" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="70" t="s">
+      <c r="C1" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="D1" s="70" t="s">
+      <c r="D1" s="67" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="115.5">
-      <c r="A2" s="83" t="s">
+    <row r="2" spans="1:4" ht="100.8">
+      <c r="A2" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="74" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="80" t="s">
+      <c r="C2" s="72" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="91" t="s">
+      <c r="D2" s="101" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="82.5">
-      <c r="A3" s="83" t="s">
+    <row r="3" spans="1:4" ht="72">
+      <c r="A3" s="75" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="D3" s="92" t="s">
+      <c r="D3" s="83" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="39.75" customHeight="1">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="83" t="s">
+      <c r="B4" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="83" t="s">
+      <c r="C4" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="83" t="s">
+      <c r="D4" s="75" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2351,9 +2649,9 @@
       <selection activeCell="Q49" sqref="Q49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="4" width="11.42578125" customWidth="1"/>
+    <col min="1" max="4" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2368,61 +2666,61 @@
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="71" customWidth="1"/>
-    <col min="2" max="2" width="72.5703125" customWidth="1"/>
+    <col min="2" max="2" width="72.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19.5">
-      <c r="A1" s="74" t="s">
+    <row r="1" spans="1:2" ht="18.600000000000001">
+      <c r="A1" s="68" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="69" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="75.75" customHeight="1">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="89" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="86" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="65.25" customHeight="1">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="89" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="94" t="s">
+      <c r="B3" s="85" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="69" customHeight="1">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="89" t="s">
         <v>109</v>
       </c>
-      <c r="B4" s="96" t="s">
+      <c r="B4" s="87" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="72.75" customHeight="1">
-      <c r="A5" s="98" t="s">
+      <c r="A5" s="89" t="s">
         <v>110</v>
       </c>
-      <c r="B5" s="94" t="s">
+      <c r="B5" s="85" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="61.5" customHeight="1">
-      <c r="A6" s="97" t="s">
+      <c r="A6" s="88" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="93" t="s">
+      <c r="B6" s="84" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2439,57 +2737,144 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="42.140625" customWidth="1"/>
-    <col min="2" max="2" width="72.5703125" customWidth="1"/>
+    <col min="1" max="1" width="42.109375" customWidth="1"/>
+    <col min="2" max="2" width="72.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19.5">
-      <c r="A1" s="74" t="s">
+    <row r="1" spans="1:2" ht="18.600000000000001">
+      <c r="A1" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="69" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="75.75" customHeight="1">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="84" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="81" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="65.25" customHeight="1">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="85" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="88" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="103.5" customHeight="1">
-      <c r="A4" s="95" t="s">
+      <c r="A4" s="86" t="s">
         <v>99</v>
       </c>
-      <c r="B4" s="89" t="s">
+      <c r="B4" s="81" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="89.25" customHeight="1">
-      <c r="A5" s="96" t="s">
+      <c r="A5" s="87" t="s">
         <v>100</v>
       </c>
-      <c r="B5" s="90" t="s">
+      <c r="B5" s="82" t="s">
         <v>104</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F5D2F2E-87F9-4360-9E35-7F5BEC8FD084}">
+  <sheetPr>
+    <tabColor rgb="FFFF5050"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="67" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D993CD7-4DFC-41E6-A384-3CDE41991988}">
+  <sheetPr>
+    <tabColor rgb="FFFF5050"/>
+  </sheetPr>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="82" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="29.33203125" customWidth="1"/>
+    <col min="2" max="2" width="39.77734375" customWidth="1"/>
+    <col min="3" max="3" width="81.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18.600000000000001">
+      <c r="A1" s="68" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="69" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="69" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17.399999999999999" customHeight="1">
+      <c r="A2" s="98" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="81" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="102" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30">
+      <c r="A3" s="100" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="81" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="103" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30">
+      <c r="A4" s="99" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="81" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="103" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2497,151 +2882,151 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E57A49-8761-47D3-B3B1-884E0AA39240}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView showGridLines="0" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="47" customWidth="1"/>
-    <col min="3" max="3" width="50.28515625" customWidth="1"/>
-    <col min="4" max="4" width="41.28515625" customWidth="1"/>
-    <col min="5" max="5" width="46.7109375" customWidth="1"/>
-    <col min="6" max="6" width="39.140625" customWidth="1"/>
+    <col min="3" max="3" width="50.33203125" customWidth="1"/>
+    <col min="4" max="4" width="41.33203125" customWidth="1"/>
+    <col min="5" max="5" width="46.6640625" customWidth="1"/>
+    <col min="6" max="6" width="39.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.5">
+    <row r="1" spans="1:6" ht="18.600000000000001">
       <c r="A1" s="2"/>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-    </row>
-    <row r="2" spans="1:6" ht="19.5">
-      <c r="A2" s="12" t="s">
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+    </row>
+    <row r="2" spans="1:6" ht="18.600000000000001">
+      <c r="A2" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="84" t="s">
+      <c r="E2" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="38" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="42.75">
-      <c r="B3" s="43" t="s">
+    <row r="3" spans="1:6" ht="41.4">
+      <c r="B3" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="85" t="s">
+      <c r="E3" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="F3" s="44" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="42.75">
-      <c r="B4" s="43" t="s">
+    <row r="4" spans="1:6" ht="41.4">
+      <c r="B4" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="45" t="s">
+      <c r="D4" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="85" t="s">
+      <c r="E4" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F4" s="44" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="42.75">
-      <c r="B5" s="43" t="s">
+    <row r="5" spans="1:6" ht="41.4">
+      <c r="B5" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="85" t="s">
+      <c r="E5" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="46" t="s">
+      <c r="F5" s="44" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="28.5">
-      <c r="B6" s="43" t="s">
+    <row r="6" spans="1:6" ht="27.6">
+      <c r="B6" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="86"/>
-      <c r="F6" s="47"/>
-    </row>
-    <row r="7" spans="1:6" ht="28.5">
-      <c r="B7" s="43" t="s">
+      <c r="E6" s="78"/>
+      <c r="F6" s="45"/>
+    </row>
+    <row r="7" spans="1:6" ht="27.6">
+      <c r="B7" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="45" t="s">
+      <c r="C7" s="46"/>
+      <c r="D7" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="86"/>
-      <c r="F7" s="47"/>
-    </row>
-    <row r="8" spans="1:6" ht="28.5">
-      <c r="B8" s="43" t="s">
+      <c r="E7" s="78"/>
+      <c r="F7" s="45"/>
+    </row>
+    <row r="8" spans="1:6" ht="27.6">
+      <c r="B8" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="47"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="45"/>
     </row>
     <row r="9" spans="1:6" ht="42.75" customHeight="1">
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="47"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="45"/>
     </row>
     <row r="10" spans="1:6" ht="48" customHeight="1">
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="54"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="52"/>
     </row>
     <row r="11" spans="1:6" ht="52.5" customHeight="1"/>
   </sheetData>
@@ -2650,6 +3035,249 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AE21890-1516-4F1C-ADD8-4F9EF368713A}">
+  <sheetPr>
+    <tabColor rgb="FFFF5050"/>
+  </sheetPr>
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="35.5546875" customWidth="1"/>
+    <col min="2" max="2" width="37.33203125" customWidth="1"/>
+    <col min="3" max="3" width="33.21875" customWidth="1"/>
+    <col min="4" max="4" width="42.88671875" customWidth="1"/>
+    <col min="5" max="5" width="25.33203125" customWidth="1"/>
+    <col min="6" max="6" width="27.77734375" customWidth="1"/>
+    <col min="7" max="7" width="13.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="37.200000000000003">
+      <c r="A1" s="105" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="104" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="106" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="107" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" s="106" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1" s="106" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" s="106" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15">
+      <c r="A2" s="108" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="110"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="63"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="63"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="63"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="63"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+    </row>
+    <row r="7" spans="1:7" ht="15">
+      <c r="A7" s="108" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" s="109"/>
+      <c r="C7" s="109"/>
+      <c r="D7" s="109"/>
+      <c r="E7" s="109"/>
+      <c r="F7" s="109"/>
+      <c r="G7" s="110"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="63"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="63"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="63"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="63"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A7:G7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C83692E-1EC1-48FE-A029-648A924B35D9}">
+  <sheetPr>
+    <tabColor rgb="FFFF5050"/>
+  </sheetPr>
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="55.33203125" customWidth="1"/>
+    <col min="2" max="2" width="38.33203125" customWidth="1"/>
+    <col min="3" max="3" width="34.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18.600000000000001">
+      <c r="A1" s="119" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+    </row>
+    <row r="2" spans="1:3" ht="15">
+      <c r="A2" s="111" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="112"/>
+      <c r="C2" s="113"/>
+    </row>
+    <row r="3" spans="1:3" ht="15">
+      <c r="A3" s="111" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" s="112"/>
+      <c r="C3" s="113"/>
+    </row>
+    <row r="4" spans="1:3" ht="15">
+      <c r="A4" s="114" t="s">
+        <v>135</v>
+      </c>
+      <c r="B4" s="115"/>
+      <c r="C4" s="116"/>
+    </row>
+    <row r="5" spans="1:3" ht="15">
+      <c r="A5" s="114" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" s="115"/>
+      <c r="C5" s="116"/>
+    </row>
+    <row r="6" spans="1:3" ht="15">
+      <c r="A6" s="117" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" s="102" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" s="102" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15">
+      <c r="A7" s="118" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" s="102" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="102" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15">
+      <c r="A8" s="114" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8" s="115"/>
+      <c r="C8" s="116"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2661,20 +3289,20 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" customWidth="1"/>
-    <col min="2" max="2" width="34.85546875" customWidth="1"/>
+    <col min="1" max="1" width="28.6640625" customWidth="1"/>
+    <col min="2" max="2" width="34.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="B1" s="55"/>
-    </row>
-    <row r="2" spans="1:2" ht="19.5">
-      <c r="A2" s="57" t="s">
+      <c r="B1" s="53"/>
+    </row>
+    <row r="2" spans="1:2" ht="18.600000000000001">
+      <c r="A2" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="54" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2694,86 +3322,86 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
     <col min="2" max="2" width="47" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="18">
-      <c r="B1" s="13" t="s">
+    <row r="1" spans="2:3" ht="17.399999999999999">
+      <c r="B1" s="12" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="2" spans="2:3">
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="2:3" ht="16.5">
-      <c r="B3" s="28" t="s">
+    <row r="3" spans="2:3" ht="14.4">
+      <c r="B3" s="27" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="16.5">
-      <c r="B4" s="28" t="s">
+    <row r="4" spans="2:3" ht="14.4">
+      <c r="B4" s="27" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="16.5">
-      <c r="B5" s="28" t="s">
+    <row r="5" spans="2:3" ht="14.4">
+      <c r="B5" s="27" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="16.5">
-      <c r="B6" s="28" t="s">
+    <row r="6" spans="2:3" ht="14.4">
+      <c r="B6" s="27" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="16.5">
-      <c r="B7" s="28" t="s">
+    <row r="7" spans="2:3" ht="14.4">
+      <c r="B7" s="27" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="16.5">
+    <row r="8" spans="2:3" ht="14.4">
       <c r="B8" s="4"/>
     </row>
-    <row r="9" spans="2:3" ht="16.5">
-      <c r="B9" s="32" t="s">
+    <row r="9" spans="2:3" ht="14.4">
+      <c r="B9" s="31" t="s">
         <v>56</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="16.5">
-      <c r="B10" s="29"/>
+    <row r="10" spans="2:3" ht="14.4">
+      <c r="B10" s="28"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="2:3" ht="16.5">
-      <c r="B11" s="33" t="s">
+    <row r="11" spans="2:3" ht="14.4">
+      <c r="B11" s="32" t="s">
         <v>57</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="16.5">
-      <c r="B12" s="30"/>
+    <row r="12" spans="2:3" ht="14.4">
+      <c r="B12" s="29"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="2:3" ht="16.5">
-      <c r="B13" s="33" t="s">
+    <row r="13" spans="2:3" ht="14.4">
+      <c r="B13" s="32" t="s">
         <v>58</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:3" ht="16.5">
-      <c r="B14" s="30"/>
+    <row r="14" spans="2:3" ht="14.4">
+      <c r="B14" s="29"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="2:3" ht="16.5">
-      <c r="B15" s="33" t="s">
+    <row r="15" spans="2:3" ht="14.4">
+      <c r="B15" s="32" t="s">
         <v>59</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -2781,11 +3409,11 @@
       </c>
     </row>
     <row r="16" spans="2:3">
-      <c r="B16" s="31"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="2:3" ht="16.5">
-      <c r="B17" s="33" t="s">
+    <row r="17" spans="2:3" ht="14.4">
+      <c r="B17" s="32" t="s">
         <v>60</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -2793,7 +3421,7 @@
       </c>
     </row>
     <row r="18" spans="2:3">
-      <c r="B18" s="31"/>
+      <c r="B18" s="30"/>
       <c r="C18" s="1"/>
     </row>
     <row r="19" spans="2:3">
@@ -2843,80 +3471,80 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="84.5703125" customWidth="1"/>
+    <col min="1" max="1" width="84.5546875" customWidth="1"/>
     <col min="2" max="2" width="150" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:2" ht="17.399999999999999">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="26" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="19.5">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:2" ht="18.600000000000001">
+      <c r="A2" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="19.5">
-      <c r="A3" s="21" t="s">
+    <row r="3" spans="1:2" ht="18.600000000000001">
+      <c r="A3" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="19.5">
-      <c r="A4" s="21" t="s">
+    <row r="4" spans="1:2" ht="18.600000000000001">
+      <c r="A4" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="19.5">
-      <c r="A5" s="21" t="s">
+    <row r="5" spans="1:2" ht="18.600000000000001">
+      <c r="A5" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75">
-      <c r="A6" s="24"/>
-      <c r="B6" s="23"/>
-    </row>
-    <row r="7" spans="1:2" ht="19.5">
-      <c r="A7" s="21" t="s">
+    <row r="6" spans="1:2" ht="13.8">
+      <c r="A6" s="23"/>
+      <c r="B6" s="22"/>
+    </row>
+    <row r="7" spans="1:2" ht="18.600000000000001">
+      <c r="A7" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="19.5">
-      <c r="A8" s="21" t="s">
+    <row r="8" spans="1:2" ht="18.600000000000001">
+      <c r="A8" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="19.5">
-      <c r="A9" s="21" t="s">
+    <row r="9" spans="1:2" ht="18.600000000000001">
+      <c r="A9" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="21" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2945,43 +3573,43 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D4" sqref="D4:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" customWidth="1"/>
-    <col min="2" max="2" width="37.85546875" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="28.42578125" customWidth="1"/>
-    <col min="8" max="8" width="81.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" customWidth="1"/>
+    <col min="2" max="2" width="37.88671875" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="7" max="7" width="28.44140625" customWidth="1"/>
+    <col min="8" max="8" width="81.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.5">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:6" ht="18.600000000000001">
+      <c r="A1" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>39</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:6" ht="39.75" customHeight="1">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>50</v>
       </c>
       <c r="D2" s="8">
@@ -2989,50 +3617,50 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="39.75" customHeight="1">
-      <c r="A3" s="20"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="20"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="19"/>
       <c r="D3" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="39.75" customHeight="1">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="9">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="97">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="39.75" customHeight="1">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="9">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="97">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="39.75" customHeight="1">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="10">
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="39.75" customHeight="1">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="10">
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="39.75" customHeight="1">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="11">
+      <c r="A8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="10">
         <v>4</v>
       </c>
     </row>
@@ -3049,56 +3677,56 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="28.140625" customWidth="1"/>
-    <col min="2" max="2" width="99.28515625" customWidth="1"/>
+    <col min="1" max="1" width="28.109375" customWidth="1"/>
+    <col min="2" max="2" width="99.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19.5">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:2" ht="18.600000000000001">
+      <c r="A1" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="49.5">
-      <c r="A2" s="34" t="s">
+    <row r="2" spans="1:2" ht="43.2">
+      <c r="A2" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="49.5">
-      <c r="A3" s="35" t="s">
+    <row r="3" spans="1:2" ht="43.2">
+      <c r="A3" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="49.5">
-      <c r="A4" s="36" t="s">
+    <row r="4" spans="1:2" ht="43.2">
+      <c r="A4" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="49.5">
-      <c r="A5" s="37" t="s">
+    <row r="5" spans="1:2" ht="43.2">
+      <c r="A5" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.5">
+    <row r="6" spans="1:2" ht="16.8">
       <c r="A6" s="7"/>
       <c r="B6" s="6"/>
     </row>
@@ -3126,56 +3754,56 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" customWidth="1"/>
-    <col min="3" max="4" width="29.7109375" customWidth="1"/>
+    <col min="1" max="1" width="31.44140625" customWidth="1"/>
+    <col min="2" max="2" width="30.44140625" customWidth="1"/>
+    <col min="3" max="4" width="29.6640625" customWidth="1"/>
     <col min="5" max="5" width="52" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.5">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:5" ht="18.600000000000001">
+      <c r="A1" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="56" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="91" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="91" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="72" t="s">
+      <c r="C2" s="91" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="59" t="s">
+      <c r="D2" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="59" t="s">
+      <c r="E2" s="57" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="73"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="59" t="s">
+      <c r="A3" s="92"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="59" t="s">
+      <c r="E3" s="57" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3200,33 +3828,33 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="33.42578125" customWidth="1"/>
-    <col min="2" max="2" width="41.85546875" customWidth="1"/>
+    <col min="1" max="1" width="33.44140625" customWidth="1"/>
+    <col min="2" max="2" width="41.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19.5">
-      <c r="A1" s="67" t="s">
+    <row r="1" spans="1:2" ht="18.600000000000001">
+      <c r="A1" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="64" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="59" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="57" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3236,6 +3864,29 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Person xmlns="697422ec-95af-4bd2-8276-a0ec7e90a4ab">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Person>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DFBB0D2FDE44F94CB78A9106E3FBA332" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="137b1f1cb11a1256ab4a0f5880de417a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="697422ec-95af-4bd2-8276-a0ec7e90a4ab" xmlns:ns3="cdf9ac4b-5435-4bec-af38-1f507fb7cef4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="daa17bb5a01238db6bf64e5679998ab6" ns2:_="" ns3:_="">
     <xsd:import namespace="697422ec-95af-4bd2-8276-a0ec7e90a4ab"/>
@@ -3472,30 +4123,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06E10371-9AC9-4013-9760-8C8E58478A78}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="697422ec-95af-4bd2-8276-a0ec7e90a4ab"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Person xmlns="697422ec-95af-4bd2-8276-a0ec7e90a4ab">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Person>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F09DFB5-5621-4569-A1B8-D17B8BA8581F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22357339-C823-4122-A1BF-672EA02855DF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3512,22 +4158,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F09DFB5-5621-4569-A1B8-D17B8BA8581F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06E10371-9AC9-4013-9760-8C8E58478A78}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="697422ec-95af-4bd2-8276-a0ec7e90a4ab"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>